--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>484911.23 N</t>
+    <t>511355.13 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -235,22 +235,22 @@
     <t>1150.00 m</t>
   </si>
   <si>
-    <t>9.18 %</t>
-  </si>
-  <si>
-    <t>7.33 %</t>
-  </si>
-  <si>
-    <t>6.21 %</t>
-  </si>
-  <si>
-    <t>11.88 %</t>
-  </si>
-  <si>
-    <t>20.46 %</t>
-  </si>
-  <si>
-    <t>7.91 %</t>
+    <t>10.46 %</t>
+  </si>
+  <si>
+    <t>8.55 %</t>
+  </si>
+  <si>
+    <t>7.49 %</t>
+  </si>
+  <si>
+    <t>13.08 %</t>
+  </si>
+  <si>
+    <t>22.07 %</t>
+  </si>
+  <si>
+    <t>9.34 %</t>
   </si>
   <si>
     <t>0.77</t>
@@ -259,31 +259,31 @@
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>26252.89 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>11.42 %</t>
-  </si>
-  <si>
-    <t>-7.35 %</t>
-  </si>
-  <si>
-    <t>-4.48 %</t>
-  </si>
-  <si>
-    <t>-10.40 %</t>
-  </si>
-  <si>
-    <t>-36.87 º</t>
+    <t>31514.16 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>26.64 %</t>
+  </si>
+  <si>
+    <t>5.46 %</t>
+  </si>
+  <si>
+    <t>-6.78 %</t>
+  </si>
+  <si>
+    <t>-13.18 %</t>
+  </si>
+  <si>
+    <t>-43.55 º</t>
   </si>
   <si>
     <t>7.99 º</t>
   </si>
   <si>
-    <t>25.84 º</t>
-  </si>
-  <si>
-    <t>115.57 %</t>
+    <t>25.36 º</t>
+  </si>
+  <si>
+    <t>124.65 %</t>
   </si>
   <si>
     <t>34.38 m</t>
@@ -921,7 +921,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>511355.13 N</t>
+    <t>457055.01 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -235,22 +235,22 @@
     <t>1150.00 m</t>
   </si>
   <si>
-    <t>10.46 %</t>
-  </si>
-  <si>
-    <t>8.55 %</t>
-  </si>
-  <si>
-    <t>7.49 %</t>
-  </si>
-  <si>
-    <t>13.08 %</t>
-  </si>
-  <si>
-    <t>22.07 %</t>
-  </si>
-  <si>
-    <t>9.34 %</t>
+    <t>6.89 %</t>
+  </si>
+  <si>
+    <t>4.27 %</t>
+  </si>
+  <si>
+    <t>3.70 %</t>
+  </si>
+  <si>
+    <t>9.75 %</t>
+  </si>
+  <si>
+    <t>19.92 %</t>
+  </si>
+  <si>
+    <t>6.78 %</t>
   </si>
   <si>
     <t>0.77</t>
@@ -259,34 +259,34 @@
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>31514.16 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>26.64 %</t>
-  </si>
-  <si>
-    <t>5.46 %</t>
-  </si>
-  <si>
-    <t>-6.78 %</t>
-  </si>
-  <si>
-    <t>-13.18 %</t>
-  </si>
-  <si>
-    <t>-43.55 º</t>
-  </si>
-  <si>
-    <t>7.99 º</t>
-  </si>
-  <si>
-    <t>25.36 º</t>
-  </si>
-  <si>
-    <t>124.65 %</t>
-  </si>
-  <si>
-    <t>34.38 m</t>
+    <t>9106.99 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>8.90 %</t>
+  </si>
+  <si>
+    <t>4.54 %</t>
+  </si>
+  <si>
+    <t>9.21 %</t>
+  </si>
+  <si>
+    <t>7.09 %</t>
+  </si>
+  <si>
+    <t>15.76 º</t>
+  </si>
+  <si>
+    <t>19.33 º</t>
+  </si>
+  <si>
+    <t>58.93 º</t>
+  </si>
+  <si>
+    <t>88.97 %</t>
+  </si>
+  <si>
+    <t>30.10 m</t>
   </si>
   <si>
     <t>OK</t>
@@ -921,7 +921,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1021,7 +1021,7 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1035,7 +1035,7 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1049,7 +1049,7 @@
         <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4">

--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Parâmetro</t>
   </si>
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>457055.01 N</t>
+    <t>460769.40 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -244,13 +244,13 @@
     <t>3.70 %</t>
   </si>
   <si>
-    <t>9.75 %</t>
-  </si>
-  <si>
-    <t>19.92 %</t>
-  </si>
-  <si>
-    <t>6.78 %</t>
+    <t>9.73 %</t>
+  </si>
+  <si>
+    <t>19.94 %</t>
+  </si>
+  <si>
+    <t>6.76 %</t>
   </si>
   <si>
     <t>0.77</t>
@@ -259,31 +259,31 @@
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>9106.99 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>8.90 %</t>
-  </si>
-  <si>
-    <t>4.54 %</t>
-  </si>
-  <si>
-    <t>9.21 %</t>
-  </si>
-  <si>
-    <t>7.09 %</t>
-  </si>
-  <si>
-    <t>15.76 º</t>
+    <t>8433.46 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>10.00 %</t>
+  </si>
+  <si>
+    <t>5.54 %</t>
+  </si>
+  <si>
+    <t>9.52 %</t>
+  </si>
+  <si>
+    <t>7.56 %</t>
+  </si>
+  <si>
+    <t>16.76 º</t>
   </si>
   <si>
     <t>19.33 º</t>
   </si>
   <si>
-    <t>58.93 º</t>
-  </si>
-  <si>
-    <t>88.97 %</t>
+    <t>59.02 º</t>
+  </si>
+  <si>
+    <t>90.13 %</t>
   </si>
   <si>
     <t>30.10 m</t>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Check</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -921,7 +918,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Parâmetro</t>
   </si>
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>460769.40 N</t>
+    <t>476052.66 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -235,22 +235,22 @@
     <t>1150.00 m</t>
   </si>
   <si>
-    <t>6.89 %</t>
-  </si>
-  <si>
-    <t>4.27 %</t>
-  </si>
-  <si>
-    <t>3.70 %</t>
-  </si>
-  <si>
-    <t>9.73 %</t>
-  </si>
-  <si>
-    <t>19.94 %</t>
-  </si>
-  <si>
-    <t>6.76 %</t>
+    <t>10.74 %</t>
+  </si>
+  <si>
+    <t>7.49 %</t>
+  </si>
+  <si>
+    <t>7.77 %</t>
+  </si>
+  <si>
+    <t>13.85 %</t>
+  </si>
+  <si>
+    <t>25.46 %</t>
+  </si>
+  <si>
+    <t>11.22 %</t>
   </si>
   <si>
     <t>0.77</t>
@@ -259,34 +259,34 @@
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>8433.46 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>10.00 %</t>
-  </si>
-  <si>
-    <t>5.54 %</t>
-  </si>
-  <si>
-    <t>9.52 %</t>
-  </si>
-  <si>
-    <t>7.56 %</t>
-  </si>
-  <si>
-    <t>16.76 º</t>
-  </si>
-  <si>
-    <t>19.33 º</t>
-  </si>
-  <si>
-    <t>59.02 º</t>
-  </si>
-  <si>
-    <t>90.13 %</t>
-  </si>
-  <si>
-    <t>30.10 m</t>
+    <t>26510.29 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>29.85 %</t>
+  </si>
+  <si>
+    <t>17.92 %</t>
+  </si>
+  <si>
+    <t>18.07 %</t>
+  </si>
+  <si>
+    <t>15.17 %</t>
+  </si>
+  <si>
+    <t>30.10 º</t>
+  </si>
+  <si>
+    <t>22.45 º</t>
+  </si>
+  <si>
+    <t>61.50 º</t>
+  </si>
+  <si>
+    <t>123.24 %</t>
+  </si>
+  <si>
+    <t>26.68 m</t>
   </si>
   <si>
     <t>OK</t>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1007,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1074,7 +1077,7 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">

--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>476052.66 N</t>
+    <t>472892.13 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -235,22 +235,22 @@
     <t>1150.00 m</t>
   </si>
   <si>
-    <t>10.74 %</t>
-  </si>
-  <si>
-    <t>7.49 %</t>
-  </si>
-  <si>
-    <t>7.77 %</t>
-  </si>
-  <si>
-    <t>13.85 %</t>
-  </si>
-  <si>
-    <t>25.46 %</t>
-  </si>
-  <si>
-    <t>11.22 %</t>
+    <t>10.54 %</t>
+  </si>
+  <si>
+    <t>7.31 %</t>
+  </si>
+  <si>
+    <t>7.57 %</t>
+  </si>
+  <si>
+    <t>13.67 %</t>
+  </si>
+  <si>
+    <t>25.22 %</t>
+  </si>
+  <si>
+    <t>11.00 %</t>
   </si>
   <si>
     <t>0.77</t>
@@ -259,22 +259,22 @@
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>26510.29 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>29.85 %</t>
-  </si>
-  <si>
-    <t>17.92 %</t>
+    <t>25930.39 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>29.86 %</t>
+  </si>
+  <si>
+    <t>18.09 %</t>
   </si>
   <si>
     <t>18.07 %</t>
   </si>
   <si>
-    <t>15.17 %</t>
-  </si>
-  <si>
-    <t>30.10 º</t>
+    <t>15.21 %</t>
+  </si>
+  <si>
+    <t>30.17 º</t>
   </si>
   <si>
     <t>22.45 º</t>
@@ -283,7 +283,7 @@
     <t>61.50 º</t>
   </si>
   <si>
-    <t>123.24 %</t>
+    <t>122.02 %</t>
   </si>
   <si>
     <t>26.68 m</t>

--- a/PRJ-23/Resultados/Compliance_Matrix.xlsx
+++ b/PRJ-23/Resultados/Compliance_Matrix.xlsx
@@ -226,7 +226,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>472892.13 N</t>
+    <t>463577.66 N</t>
   </si>
   <si>
     <t>1800.00 m</t>
@@ -235,58 +235,58 @@
     <t>1150.00 m</t>
   </si>
   <si>
-    <t>10.54 %</t>
-  </si>
-  <si>
-    <t>7.31 %</t>
-  </si>
-  <si>
-    <t>7.57 %</t>
-  </si>
-  <si>
-    <t>13.67 %</t>
-  </si>
-  <si>
-    <t>25.22 %</t>
-  </si>
-  <si>
-    <t>11.00 %</t>
-  </si>
-  <si>
-    <t>0.77</t>
+    <t>6.88 %</t>
+  </si>
+  <si>
+    <t>4.27 %</t>
+  </si>
+  <si>
+    <t>3.69 %</t>
+  </si>
+  <si>
+    <t>9.94 %</t>
+  </si>
+  <si>
+    <t>19.75 %</t>
+  </si>
+  <si>
+    <t>6.69 %</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
   <si>
     <t>36089.24 ft</t>
   </si>
   <si>
-    <t>25930.39 N (Ref T0 req)</t>
-  </si>
-  <si>
-    <t>29.86 %</t>
-  </si>
-  <si>
-    <t>18.09 %</t>
-  </si>
-  <si>
-    <t>18.07 %</t>
-  </si>
-  <si>
-    <t>15.21 %</t>
-  </si>
-  <si>
-    <t>30.17 º</t>
-  </si>
-  <si>
-    <t>22.45 º</t>
-  </si>
-  <si>
-    <t>61.50 º</t>
-  </si>
-  <si>
-    <t>122.02 %</t>
-  </si>
-  <si>
-    <t>26.68 m</t>
+    <t>10932.96 N (Ref T0 req)</t>
+  </si>
+  <si>
+    <t>30.00 %</t>
+  </si>
+  <si>
+    <t>22.56 %</t>
+  </si>
+  <si>
+    <t>18.00 %</t>
+  </si>
+  <si>
+    <t>15.29 %</t>
+  </si>
+  <si>
+    <t>30.61 º</t>
+  </si>
+  <si>
+    <t>22.97 º</t>
+  </si>
+  <si>
+    <t>61.47 º</t>
+  </si>
+  <si>
+    <t>95.00 %</t>
+  </si>
+  <si>
+    <t>30.28 m</t>
   </si>
   <si>
     <t>OK</t>
@@ -907,7 +907,7 @@
         <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1007,7 +1007,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4">
